--- a/shoppingbackend/book1.xlsx
+++ b/shoppingbackend/book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sajjan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MajorProject\shoppingbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06847959-8EED-4668-A5BF-7D88AF7FA990}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB599B5-08B1-40F2-8437-CE77F496021C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2724" yWindow="2952" windowWidth="17280" windowHeight="8964" xr2:uid="{F001959C-5457-4B5E-9978-A82F543A1465}"/>
+    <workbookView xWindow="3792" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{F001959C-5457-4B5E-9978-A82F543A1465}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Sample" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>SKU</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>000000000001005035</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Markdown</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27A1A99-2FA3-42AE-8884-E1FCADB6CCC6}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +485,7 @@
     <col min="7" max="7" width="48.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +510,14 @@
       <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -531,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -557,7 +569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>

--- a/shoppingbackend/book1.xlsx
+++ b/shoppingbackend/book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MajorProject\shoppingbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB599B5-08B1-40F2-8437-CE77F496021C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4A9CD8-737F-4078-8240-395474220842}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3792" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{F001959C-5457-4B5E-9978-A82F543A1465}"/>
+    <workbookView xWindow="0" yWindow="408" windowWidth="11916" windowHeight="8964" xr2:uid="{F001959C-5457-4B5E-9978-A82F543A1465}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Sample" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -153,8 +153,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27A1A99-2FA3-42AE-8884-E1FCADB6CCC6}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +481,7 @@
     <col min="2" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/shoppingbackend/book1.xlsx
+++ b/shoppingbackend/book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MajorProject\shoppingbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4A9CD8-737F-4078-8240-395474220842}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B533E7-6AFA-4281-A1F9-DF7F70CF77D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="408" windowWidth="11916" windowHeight="8964" xr2:uid="{F001959C-5457-4B5E-9978-A82F543A1465}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F001959C-5457-4B5E-9978-A82F543A1465}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Sample" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>SKU</t>
   </si>
@@ -102,16 +102,70 @@
     <t>000000000001165533</t>
   </si>
   <si>
-    <t>000000000002569034</t>
-  </si>
-  <si>
-    <t>000000000001005035</t>
-  </si>
-  <si>
     <t>Youtube</t>
   </si>
   <si>
     <t>Markdown</t>
+  </si>
+  <si>
+    <t>000000000001165534</t>
+  </si>
+  <si>
+    <t>000000000001165535</t>
+  </si>
+  <si>
+    <t>000000000001165536</t>
+  </si>
+  <si>
+    <t>000000000001165537</t>
+  </si>
+  <si>
+    <t>000000000001165538</t>
+  </si>
+  <si>
+    <t>000000000001165539</t>
+  </si>
+  <si>
+    <t>000000000001165540</t>
+  </si>
+  <si>
+    <t>000000000001165541</t>
+  </si>
+  <si>
+    <t>Veg Mo Mo</t>
+  </si>
+  <si>
+    <t>Gyoza</t>
+  </si>
+  <si>
+    <t>Fillets</t>
+  </si>
+  <si>
+    <t>Drum sticks</t>
+  </si>
+  <si>
+    <t>Briyani</t>
+  </si>
+  <si>
+    <t>Chatamari</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -119,7 +173,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -153,8 +207,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27A1A99-2FA3-42AE-8884-E1FCADB6CCC6}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,10 +565,10 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -545,7 +599,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -571,7 +625,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -592,6 +646,162 @@
         <v>13</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>43617</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>43820</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>43829</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <v>43617</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3">
+        <v>43820</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3">
+        <v>43829</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
         <v>3</v>
       </c>
     </row>
